--- a/dom2/student.xlsx
+++ b/dom2/student.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="227">
   <si>
     <t>벌점 3점이상 사생들</t>
   </si>
@@ -86,84 +86,69 @@
     <t>구분</t>
   </si>
   <si>
-    <t>2018년09월02일 21시38분35초</t>
+    <t>2018년09월03일 01시42분48초</t>
+  </si>
+  <si>
+    <t>1층정문</t>
+  </si>
+  <si>
+    <t>1층정문(좌측-IN)</t>
+  </si>
+  <si>
+    <t>000830</t>
+  </si>
+  <si>
+    <t>경성대학교</t>
+  </si>
+  <si>
+    <t>1학년</t>
+  </si>
+  <si>
+    <t>출입</t>
+  </si>
+  <si>
+    <t>2018년09월03일 01시42분57초</t>
+  </si>
+  <si>
+    <t>2LANE</t>
+  </si>
+  <si>
+    <t>2LANE (IN)</t>
+  </si>
+  <si>
+    <t>2018년09월03일 02시28분48초</t>
   </si>
   <si>
     <t>1LANE</t>
   </si>
   <si>
+    <t>1LANE (OUT)</t>
+  </si>
+  <si>
+    <t>2018년09월03일 02시55분24초</t>
+  </si>
+  <si>
     <t>1LANE (IN)</t>
   </si>
   <si>
-    <t>000830</t>
-  </si>
-  <si>
-    <t>경성대학교</t>
-  </si>
-  <si>
-    <t>1학년</t>
-  </si>
-  <si>
-    <t>출입</t>
-  </si>
-  <si>
-    <t>2018년09월03일 00시32분11초</t>
-  </si>
-  <si>
-    <t>2LANE</t>
+    <t>2018년09월03일 01시42분56초</t>
+  </si>
+  <si>
+    <t>000198</t>
+  </si>
+  <si>
+    <t>2018년09월03일 02시28분50초</t>
   </si>
   <si>
     <t>2LANE (OUT)</t>
   </si>
   <si>
-    <t>2018년09월03일 00시32분19초</t>
-  </si>
-  <si>
-    <t>1층정문</t>
+    <t>2018년09월03일 02시28분59초</t>
   </si>
   <si>
     <t>1층정문(우측-OUT)</t>
   </si>
   <si>
-    <t>2018년09월03일 01시42분48초</t>
-  </si>
-  <si>
-    <t>1층정문(좌측-IN)</t>
-  </si>
-  <si>
-    <t>2018년09월03일 01시42분57초</t>
-  </si>
-  <si>
-    <t>2LANE (IN)</t>
-  </si>
-  <si>
-    <t>2018년09월03일 02시28분48초</t>
-  </si>
-  <si>
-    <t>1LANE (OUT)</t>
-  </si>
-  <si>
-    <t>2018년09월03일 02시55분24초</t>
-  </si>
-  <si>
-    <t>2018년09월02일 21시38분39초</t>
-  </si>
-  <si>
-    <t>000198</t>
-  </si>
-  <si>
-    <t>2018년09월03일 00시32분10초</t>
-  </si>
-  <si>
-    <t>2018년09월03일 01시42분56초</t>
-  </si>
-  <si>
-    <t>2018년09월03일 02시28분50초</t>
-  </si>
-  <si>
-    <t>2018년09월03일 02시28분59초</t>
-  </si>
-  <si>
     <t>2018년09월03일 02시55분15초</t>
   </si>
   <si>
@@ -375,6 +360,339 @@
   </si>
   <si>
     <t>박대한</t>
+  </si>
+  <si>
+    <t>벌점 3점미만 사생들 상세목록</t>
+  </si>
+  <si>
+    <t>2018년09월03일 01시55분22초</t>
+  </si>
+  <si>
+    <t>000173</t>
+  </si>
+  <si>
+    <t>2018년09월03일 01시55분31초</t>
+  </si>
+  <si>
+    <t>2018년09월03일 01시57분16초</t>
+  </si>
+  <si>
+    <t>2018년09월03일 02시08분27초</t>
+  </si>
+  <si>
+    <t>2018년09월03일 02시13분35초</t>
+  </si>
+  <si>
+    <t>2018년09월03일 02시13분41초</t>
+  </si>
+  <si>
+    <t>2018년09월03일 02시20분53초</t>
+  </si>
+  <si>
+    <t>2018년09월03일 02시49분40초</t>
+  </si>
+  <si>
+    <t>2018년09월03일 02시49분45초</t>
+  </si>
+  <si>
+    <t>2018년09월03일 01시22분17초</t>
+  </si>
+  <si>
+    <t>000542</t>
+  </si>
+  <si>
+    <t>2018년09월03일 01시27분00초</t>
+  </si>
+  <si>
+    <t>000070</t>
+  </si>
+  <si>
+    <t>2018년09월03일 01시27분47초</t>
+  </si>
+  <si>
+    <t>2018년09월03일 02시44분27초</t>
+  </si>
+  <si>
+    <t>000836</t>
+  </si>
+  <si>
+    <t>2018년09월03일 02시48분59초</t>
+  </si>
+  <si>
+    <t>2018년09월03일 02시49분07초</t>
+  </si>
+  <si>
+    <t>2018년09월03일 02시56분03초</t>
+  </si>
+  <si>
+    <t>2018년09월03일 02시56분11초</t>
+  </si>
+  <si>
+    <t>2018년09월03일 01시22분06초</t>
+  </si>
+  <si>
+    <t>000304</t>
+  </si>
+  <si>
+    <t>2018년09월03일 01시22분16초</t>
+  </si>
+  <si>
+    <t>2018년09월03일 02시44분55초</t>
+  </si>
+  <si>
+    <t>000059</t>
+  </si>
+  <si>
+    <t>2018년09월03일 02시56분53초</t>
+  </si>
+  <si>
+    <t>2018년09월03일 01시57분06초</t>
+  </si>
+  <si>
+    <t>000068</t>
+  </si>
+  <si>
+    <t>2018년09월03일 01시57분14초</t>
+  </si>
+  <si>
+    <t>2018년09월03일 01시31분36초</t>
+  </si>
+  <si>
+    <t>000293</t>
+  </si>
+  <si>
+    <t>2018년09월03일 01시31분43초</t>
+  </si>
+  <si>
+    <t>2018년09월03일 01시47분55초</t>
+  </si>
+  <si>
+    <t>000049</t>
+  </si>
+  <si>
+    <t>2018년09월03일 02시05분48초</t>
+  </si>
+  <si>
+    <t>2018년09월03일 02시06분12초</t>
+  </si>
+  <si>
+    <t>2018년09월03일 01시57분18초</t>
+  </si>
+  <si>
+    <t>000355</t>
+  </si>
+  <si>
+    <t>2018년09월03일 01시28분03초</t>
+  </si>
+  <si>
+    <t>000746</t>
+  </si>
+  <si>
+    <t>2018년09월03일 02시20분33초</t>
+  </si>
+  <si>
+    <t>000148</t>
+  </si>
+  <si>
+    <t>2018년09월03일 02시20분43초</t>
+  </si>
+  <si>
+    <t>2018년09월03일 01시57분28초</t>
+  </si>
+  <si>
+    <t>000802</t>
+  </si>
+  <si>
+    <t>2018년09월03일 01시57분31초</t>
+  </si>
+  <si>
+    <t>2018년09월03일 02시49분30초</t>
+  </si>
+  <si>
+    <t>000195</t>
+  </si>
+  <si>
+    <t>2018년09월03일 02시49분42초</t>
+  </si>
+  <si>
+    <t>2018년09월03일 03시22분18초</t>
+  </si>
+  <si>
+    <t>000801</t>
+  </si>
+  <si>
+    <t>2018년09월03일 03시22분27초</t>
+  </si>
+  <si>
+    <t>2018년09월03일 03시22분30초</t>
+  </si>
+  <si>
+    <t>000558</t>
+  </si>
+  <si>
+    <t>2018년09월03일 02시44분17초</t>
+  </si>
+  <si>
+    <t>000693</t>
+  </si>
+  <si>
+    <t>2018년09월03일 02시44분26초</t>
+  </si>
+  <si>
+    <t>2018년09월03일 02시24분56초</t>
+  </si>
+  <si>
+    <t>000775</t>
+  </si>
+  <si>
+    <t>2018년09월03일 02시25분18초</t>
+  </si>
+  <si>
+    <t>2018년09월03일 02시13분00초</t>
+  </si>
+  <si>
+    <t>000523</t>
+  </si>
+  <si>
+    <t>2018년09월03일 02시13분07초</t>
+  </si>
+  <si>
+    <t>2018년09월03일 01시47분44초</t>
+  </si>
+  <si>
+    <t>000765</t>
+  </si>
+  <si>
+    <t>2018년09월03일 01시47분53초</t>
+  </si>
+  <si>
+    <t>2018년09월03일 01시47분54초</t>
+  </si>
+  <si>
+    <t>2018년09월03일 01시51분32초</t>
+  </si>
+  <si>
+    <t>2018년09월03일 01시51분40초</t>
+  </si>
+  <si>
+    <t>2018년09월03일 01시54분38초</t>
+  </si>
+  <si>
+    <t>2018년09월03일 04시51분35초</t>
+  </si>
+  <si>
+    <t>000738</t>
+  </si>
+  <si>
+    <t>2018년09월03일 04시51분46초</t>
+  </si>
+  <si>
+    <t>2018년09월03일 01시01분45초</t>
+  </si>
+  <si>
+    <t>000666</t>
+  </si>
+  <si>
+    <t>2018년09월03일 01시01분50초</t>
+  </si>
+  <si>
+    <t>2018년09월03일 01시01분53초</t>
+  </si>
+  <si>
+    <t>2018년09월03일 01시02분03초</t>
+  </si>
+  <si>
+    <t>2018년09월03일 01시02분17초</t>
+  </si>
+  <si>
+    <t>2018년09월03일 01시02분48초</t>
+  </si>
+  <si>
+    <t>2018년09월03일 01시03분00초</t>
+  </si>
+  <si>
+    <t>2018년09월03일 01시03분14초</t>
+  </si>
+  <si>
+    <t>2018년09월03일 01시03분15초</t>
+  </si>
+  <si>
+    <t>2018년09월03일 01시03분21초</t>
+  </si>
+  <si>
+    <t>2018년09월03일 01시03분48초</t>
+  </si>
+  <si>
+    <t>2018년09월03일 01시04분01초</t>
+  </si>
+  <si>
+    <t>2018년09월03일 01시27분50초</t>
+  </si>
+  <si>
+    <t>000795</t>
+  </si>
+  <si>
+    <t>2018년09월03일 01시28분05초</t>
+  </si>
+  <si>
+    <t>2018년09월03일 01시31분00초</t>
+  </si>
+  <si>
+    <t>000758</t>
+  </si>
+  <si>
+    <t>2018년09월03일 01시31분06초</t>
+  </si>
+  <si>
+    <t>2018년09월03일 02시08분29초</t>
+  </si>
+  <si>
+    <t>000071</t>
+  </si>
+  <si>
+    <t>2018년09월03일 02시08분36초</t>
+  </si>
+  <si>
+    <t>2018년09월03일 02시13분34초</t>
+  </si>
+  <si>
+    <t>2018년09월03일 02시13분43초</t>
+  </si>
+  <si>
+    <t>2018년09월03일 02시20분41초</t>
+  </si>
+  <si>
+    <t>2018년09월03일 02시20분50초</t>
+  </si>
+  <si>
+    <t>2018년09월03일 02시11분13초</t>
+  </si>
+  <si>
+    <t>000813</t>
+  </si>
+  <si>
+    <t>2018년09월03일 02시11분52초</t>
+  </si>
+  <si>
+    <t>2018년09월03일 02시12분50초</t>
+  </si>
+  <si>
+    <t>2018년09월03일 02시49분53초</t>
+  </si>
+  <si>
+    <t>000528</t>
+  </si>
+  <si>
+    <t>2018년09월03일 03시41분47초</t>
+  </si>
+  <si>
+    <t>000517</t>
+  </si>
+  <si>
+    <t>2018년09월03일 03시41분59초</t>
+  </si>
+  <si>
+    <t>000129</t>
   </si>
 </sst>
 </file>
@@ -419,7 +737,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I139"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -641,19 +959,19 @@
         <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
         <v>40</v>
       </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G13" t="s">
         <v>28</v>
@@ -670,19 +988,19 @@
         <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
         <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G14" t="s">
         <v>28</v>
@@ -702,16 +1020,16 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G15" t="s">
         <v>28</v>
@@ -725,7 +1043,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -734,7 +1052,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -754,16 +1072,16 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -783,22 +1101,22 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
         <v>47</v>
       </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>45</v>
-      </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
         <v>28</v>
@@ -815,19 +1133,19 @@
         <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G19" t="s">
         <v>28</v>
@@ -844,19 +1162,19 @@
         <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G20" t="s">
         <v>28</v>
@@ -879,13 +1197,13 @@
         <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G21" t="s">
         <v>28</v>
@@ -897,586 +1215,2797 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" t="s">
-        <v>29</v>
-      </c>
-      <c r="I22" t="s">
-        <v>30</v>
-      </c>
-    </row>
     <row r="23">
-      <c r="A23" t="s">
+      <c r="E23" t="s">
         <v>51</v>
       </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" t="s">
+    </row>
+    <row r="24">
+      <c r="E24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="s">
         <v>52</v>
       </c>
-      <c r="E23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" t="s">
-        <v>29</v>
-      </c>
-      <c r="I23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
+      <c r="F25" t="s">
         <v>53</v>
       </c>
-      <c r="B24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" t="s">
-        <v>29</v>
-      </c>
-      <c r="I24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
+      <c r="G25" t="s">
         <v>54</v>
       </c>
-      <c r="B25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" t="s">
-        <v>28</v>
-      </c>
       <c r="H25" t="s">
-        <v>29</v>
-      </c>
-      <c r="I25" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s">
+      <c r="E26"/>
+      <c r="F26" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="E27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" t="s">
         <v>55</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" t="s">
-        <v>28</v>
-      </c>
-      <c r="H26" t="s">
-        <v>29</v>
-      </c>
-      <c r="I26" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="E28" t="s">
-        <v>56</v>
+        <v>61</v>
+      </c>
+      <c r="F28" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" t="s">
+        <v>54</v>
+      </c>
+      <c r="H28" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="29">
       <c r="E29" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="F29" t="s">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="G29" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="H29" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30">
       <c r="E30" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F30" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G30" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H30" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31">
-      <c r="E31"/>
+      <c r="E31" t="s">
+        <v>67</v>
+      </c>
       <c r="F31" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G31" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H31" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F32" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G32" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H32" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F33" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G33" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H33" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F34" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G34" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H34" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F35" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G35" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H35" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F36" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H36" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F37" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G37" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H37" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F38" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G38" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H38" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F39" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G39" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F40" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G40" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F41" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G41" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F42" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G42" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H42" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F43" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G43" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H43" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F44" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G44" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H44" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F45" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G45" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H45" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F46" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G46" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H46" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F47" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G47" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H47" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F48" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G48" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H48" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F49" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G49" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H49" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F50" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G50" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H50" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F51" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G51" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H51" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F52" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G52" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H52" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F53" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G53" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H53" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" t="s">
+        <v>114</v>
+      </c>
+      <c r="F54" t="s">
+        <v>115</v>
+      </c>
+      <c r="G54" t="s">
+        <v>54</v>
+      </c>
+      <c r="H54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1</v>
+      </c>
+      <c r="F57" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" t="s">
+        <v>22</v>
+      </c>
+      <c r="I57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58" t="s">
+        <v>118</v>
+      </c>
+      <c r="E58" t="s">
+        <v>52</v>
+      </c>
+      <c r="F58" t="s">
+        <v>53</v>
+      </c>
+      <c r="G58" t="s">
+        <v>28</v>
+      </c>
+      <c r="H58" t="s">
+        <v>29</v>
+      </c>
+      <c r="I58" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" t="s">
+        <v>118</v>
+      </c>
+      <c r="E59" t="s">
+        <v>52</v>
+      </c>
+      <c r="F59" t="s">
+        <v>53</v>
+      </c>
+      <c r="G59" t="s">
+        <v>28</v>
+      </c>
+      <c r="H59" t="s">
+        <v>29</v>
+      </c>
+      <c r="I59" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" t="s">
+        <v>56</v>
+      </c>
+      <c r="E60"/>
+      <c r="F60" t="s">
+        <v>56</v>
+      </c>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61" t="s">
+        <v>56</v>
+      </c>
+      <c r="E61"/>
+      <c r="F61" t="s">
+        <v>56</v>
+      </c>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" t="s">
+        <v>42</v>
+      </c>
+      <c r="D62" t="s">
+        <v>56</v>
+      </c>
+      <c r="E62"/>
+      <c r="F62" t="s">
+        <v>56</v>
+      </c>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" t="s">
+        <v>44</v>
+      </c>
+      <c r="D63" t="s">
+        <v>56</v>
+      </c>
+      <c r="E63"/>
+      <c r="F63" t="s">
+        <v>56</v>
+      </c>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" t="s">
+        <v>32</v>
+      </c>
+      <c r="C64" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" t="s">
+        <v>56</v>
+      </c>
+      <c r="E64"/>
+      <c r="F64" t="s">
+        <v>56</v>
+      </c>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>125</v>
+      </c>
+      <c r="B65" t="s">
+        <v>35</v>
+      </c>
+      <c r="C65" t="s">
+        <v>38</v>
+      </c>
+      <c r="D65" t="s">
+        <v>56</v>
+      </c>
+      <c r="E65"/>
+      <c r="F65" t="s">
+        <v>56</v>
+      </c>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>126</v>
+      </c>
+      <c r="B66" t="s">
+        <v>35</v>
+      </c>
+      <c r="C66" t="s">
+        <v>38</v>
+      </c>
+      <c r="D66" t="s">
+        <v>56</v>
+      </c>
+      <c r="E66"/>
+      <c r="F66" t="s">
+        <v>56</v>
+      </c>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>127</v>
+      </c>
+      <c r="B67" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" t="s">
+        <v>128</v>
+      </c>
+      <c r="E67" t="s">
+        <v>59</v>
+      </c>
+      <c r="F67" t="s">
+        <v>60</v>
+      </c>
+      <c r="G67" t="s">
+        <v>28</v>
+      </c>
+      <c r="H67" t="s">
+        <v>29</v>
+      </c>
+      <c r="I67" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>129</v>
+      </c>
+      <c r="B68" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68" t="s">
+        <v>26</v>
+      </c>
+      <c r="D68" t="s">
+        <v>130</v>
+      </c>
+      <c r="E68" t="s">
+        <v>61</v>
+      </c>
+      <c r="F68" t="s">
+        <v>62</v>
+      </c>
+      <c r="G68" t="s">
+        <v>28</v>
+      </c>
+      <c r="H68" t="s">
+        <v>29</v>
+      </c>
+      <c r="I68" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>131</v>
+      </c>
+      <c r="B69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C69" t="s">
+        <v>38</v>
+      </c>
+      <c r="D69" t="s">
+        <v>130</v>
+      </c>
+      <c r="E69" t="s">
+        <v>61</v>
+      </c>
+      <c r="F69" t="s">
+        <v>62</v>
+      </c>
+      <c r="G69" t="s">
+        <v>28</v>
+      </c>
+      <c r="H69" t="s">
+        <v>29</v>
+      </c>
+      <c r="I69" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>132</v>
+      </c>
+      <c r="B70" t="s">
+        <v>35</v>
+      </c>
+      <c r="C70" t="s">
+        <v>38</v>
+      </c>
+      <c r="D70" t="s">
+        <v>133</v>
+      </c>
+      <c r="E70" t="s">
+        <v>63</v>
+      </c>
+      <c r="F70" t="s">
+        <v>64</v>
+      </c>
+      <c r="G70" t="s">
+        <v>28</v>
+      </c>
+      <c r="H70" t="s">
+        <v>29</v>
+      </c>
+      <c r="I70" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>134</v>
+      </c>
+      <c r="B71" t="s">
+        <v>32</v>
+      </c>
+      <c r="C71" t="s">
+        <v>42</v>
+      </c>
+      <c r="D71" t="s">
+        <v>133</v>
+      </c>
+      <c r="E71" t="s">
+        <v>63</v>
+      </c>
+      <c r="F71" t="s">
+        <v>64</v>
+      </c>
+      <c r="G71" t="s">
+        <v>28</v>
+      </c>
+      <c r="H71" t="s">
+        <v>29</v>
+      </c>
+      <c r="I71" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>135</v>
+      </c>
+      <c r="B72" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72" t="s">
+        <v>44</v>
+      </c>
+      <c r="D72" t="s">
+        <v>133</v>
+      </c>
+      <c r="E72" t="s">
+        <v>63</v>
+      </c>
+      <c r="F72" t="s">
+        <v>64</v>
+      </c>
+      <c r="G72" t="s">
+        <v>28</v>
+      </c>
+      <c r="H72" t="s">
+        <v>29</v>
+      </c>
+      <c r="I72" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>136</v>
+      </c>
+      <c r="B73" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" t="s">
+        <v>26</v>
+      </c>
+      <c r="D73" t="s">
+        <v>133</v>
+      </c>
+      <c r="E73" t="s">
+        <v>63</v>
+      </c>
+      <c r="F73" t="s">
+        <v>64</v>
+      </c>
+      <c r="G73" t="s">
+        <v>28</v>
+      </c>
+      <c r="H73" t="s">
+        <v>29</v>
+      </c>
+      <c r="I73" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>137</v>
+      </c>
+      <c r="B74" t="s">
+        <v>35</v>
+      </c>
+      <c r="C74" t="s">
+        <v>38</v>
+      </c>
+      <c r="D74" t="s">
+        <v>133</v>
+      </c>
+      <c r="E74" t="s">
+        <v>63</v>
+      </c>
+      <c r="F74" t="s">
+        <v>64</v>
+      </c>
+      <c r="G74" t="s">
+        <v>28</v>
+      </c>
+      <c r="H74" t="s">
+        <v>29</v>
+      </c>
+      <c r="I74" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>138</v>
+      </c>
+      <c r="B75" t="s">
+        <v>25</v>
+      </c>
+      <c r="C75" t="s">
+        <v>26</v>
+      </c>
+      <c r="D75" t="s">
+        <v>139</v>
+      </c>
+      <c r="E75" t="s">
+        <v>65</v>
+      </c>
+      <c r="F75" t="s">
+        <v>66</v>
+      </c>
+      <c r="G75" t="s">
+        <v>28</v>
+      </c>
+      <c r="H75" t="s">
+        <v>29</v>
+      </c>
+      <c r="I75" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>140</v>
+      </c>
+      <c r="B76" t="s">
+        <v>35</v>
+      </c>
+      <c r="C76" t="s">
+        <v>38</v>
+      </c>
+      <c r="D76" t="s">
+        <v>139</v>
+      </c>
+      <c r="E76" t="s">
+        <v>65</v>
+      </c>
+      <c r="F76" t="s">
+        <v>66</v>
+      </c>
+      <c r="G76" t="s">
+        <v>28</v>
+      </c>
+      <c r="H76" t="s">
+        <v>29</v>
+      </c>
+      <c r="I76" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>141</v>
+      </c>
+      <c r="B77" t="s">
+        <v>25</v>
+      </c>
+      <c r="C77" t="s">
+        <v>26</v>
+      </c>
+      <c r="D77" t="s">
+        <v>142</v>
+      </c>
+      <c r="E77" t="s">
+        <v>67</v>
+      </c>
+      <c r="F77" t="s">
+        <v>68</v>
+      </c>
+      <c r="G77" t="s">
+        <v>28</v>
+      </c>
+      <c r="H77" t="s">
+        <v>29</v>
+      </c>
+      <c r="I77" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>143</v>
+      </c>
+      <c r="B78" t="s">
+        <v>35</v>
+      </c>
+      <c r="C78" t="s">
+        <v>38</v>
+      </c>
+      <c r="D78" t="s">
+        <v>142</v>
+      </c>
+      <c r="E78" t="s">
+        <v>67</v>
+      </c>
+      <c r="F78" t="s">
+        <v>68</v>
+      </c>
+      <c r="G78" t="s">
+        <v>28</v>
+      </c>
+      <c r="H78" t="s">
+        <v>29</v>
+      </c>
+      <c r="I78" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>144</v>
+      </c>
+      <c r="B79" t="s">
+        <v>25</v>
+      </c>
+      <c r="C79" t="s">
+        <v>26</v>
+      </c>
+      <c r="D79" t="s">
+        <v>145</v>
+      </c>
+      <c r="E79" t="s">
+        <v>69</v>
+      </c>
+      <c r="F79" t="s">
+        <v>70</v>
+      </c>
+      <c r="G79" t="s">
+        <v>28</v>
+      </c>
+      <c r="H79" t="s">
+        <v>29</v>
+      </c>
+      <c r="I79" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>146</v>
+      </c>
+      <c r="B80" t="s">
+        <v>35</v>
+      </c>
+      <c r="C80" t="s">
+        <v>38</v>
+      </c>
+      <c r="D80" t="s">
+        <v>145</v>
+      </c>
+      <c r="E80" t="s">
+        <v>69</v>
+      </c>
+      <c r="F80" t="s">
+        <v>70</v>
+      </c>
+      <c r="G80" t="s">
+        <v>28</v>
+      </c>
+      <c r="H80" t="s">
+        <v>29</v>
+      </c>
+      <c r="I80" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>147</v>
+      </c>
+      <c r="B81" t="s">
+        <v>25</v>
+      </c>
+      <c r="C81" t="s">
+        <v>26</v>
+      </c>
+      <c r="D81" t="s">
+        <v>148</v>
+      </c>
+      <c r="E81" t="s">
+        <v>71</v>
+      </c>
+      <c r="F81" t="s">
+        <v>72</v>
+      </c>
+      <c r="G81" t="s">
+        <v>28</v>
+      </c>
+      <c r="H81" t="s">
+        <v>29</v>
+      </c>
+      <c r="I81" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>149</v>
+      </c>
+      <c r="B82" t="s">
+        <v>35</v>
+      </c>
+      <c r="C82" t="s">
+        <v>38</v>
+      </c>
+      <c r="D82" t="s">
+        <v>148</v>
+      </c>
+      <c r="E82" t="s">
+        <v>71</v>
+      </c>
+      <c r="F82" t="s">
+        <v>72</v>
+      </c>
+      <c r="G82" t="s">
+        <v>28</v>
+      </c>
+      <c r="H82" t="s">
+        <v>29</v>
+      </c>
+      <c r="I82" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>150</v>
+      </c>
+      <c r="B83" t="s">
+        <v>32</v>
+      </c>
+      <c r="C83" t="s">
+        <v>33</v>
+      </c>
+      <c r="D83" t="s">
+        <v>151</v>
+      </c>
+      <c r="E83" t="s">
+        <v>73</v>
+      </c>
+      <c r="F83" t="s">
+        <v>74</v>
+      </c>
+      <c r="G83" t="s">
+        <v>28</v>
+      </c>
+      <c r="H83" t="s">
+        <v>29</v>
+      </c>
+      <c r="I83" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>152</v>
+      </c>
+      <c r="B84" t="s">
+        <v>32</v>
+      </c>
+      <c r="C84" t="s">
+        <v>42</v>
+      </c>
+      <c r="D84" t="s">
+        <v>151</v>
+      </c>
+      <c r="E84" t="s">
+        <v>73</v>
+      </c>
+      <c r="F84" t="s">
+        <v>74</v>
+      </c>
+      <c r="G84" t="s">
+        <v>28</v>
+      </c>
+      <c r="H84" t="s">
+        <v>29</v>
+      </c>
+      <c r="I84" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>153</v>
+      </c>
+      <c r="B85" t="s">
+        <v>32</v>
+      </c>
+      <c r="C85" t="s">
+        <v>33</v>
+      </c>
+      <c r="D85" t="s">
+        <v>151</v>
+      </c>
+      <c r="E85" t="s">
+        <v>73</v>
+      </c>
+      <c r="F85" t="s">
+        <v>74</v>
+      </c>
+      <c r="G85" t="s">
+        <v>28</v>
+      </c>
+      <c r="H85" t="s">
+        <v>29</v>
+      </c>
+      <c r="I85" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>154</v>
+      </c>
+      <c r="B86" t="s">
+        <v>35</v>
+      </c>
+      <c r="C86" t="s">
+        <v>38</v>
+      </c>
+      <c r="D86" t="s">
+        <v>155</v>
+      </c>
+      <c r="E86" t="s">
+        <v>75</v>
+      </c>
+      <c r="F86" t="s">
+        <v>76</v>
+      </c>
+      <c r="G86" t="s">
+        <v>28</v>
+      </c>
+      <c r="H86" t="s">
+        <v>29</v>
+      </c>
+      <c r="I86" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>156</v>
+      </c>
+      <c r="B87" t="s">
+        <v>35</v>
+      </c>
+      <c r="C87" t="s">
+        <v>38</v>
+      </c>
+      <c r="D87" t="s">
+        <v>157</v>
+      </c>
+      <c r="E87" t="s">
+        <v>77</v>
+      </c>
+      <c r="F87" t="s">
+        <v>78</v>
+      </c>
+      <c r="G87" t="s">
+        <v>28</v>
+      </c>
+      <c r="H87" t="s">
+        <v>29</v>
+      </c>
+      <c r="I87" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>158</v>
+      </c>
+      <c r="B88" t="s">
+        <v>32</v>
+      </c>
+      <c r="C88" t="s">
+        <v>42</v>
+      </c>
+      <c r="D88" t="s">
+        <v>159</v>
+      </c>
+      <c r="E88" t="s">
+        <v>79</v>
+      </c>
+      <c r="F88" t="s">
+        <v>80</v>
+      </c>
+      <c r="G88" t="s">
+        <v>28</v>
+      </c>
+      <c r="H88" t="s">
+        <v>29</v>
+      </c>
+      <c r="I88" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>160</v>
+      </c>
+      <c r="B89" t="s">
+        <v>25</v>
+      </c>
+      <c r="C89" t="s">
+        <v>44</v>
+      </c>
+      <c r="D89" t="s">
+        <v>159</v>
+      </c>
+      <c r="E89" t="s">
+        <v>79</v>
+      </c>
+      <c r="F89" t="s">
+        <v>80</v>
+      </c>
+      <c r="G89" t="s">
+        <v>28</v>
+      </c>
+      <c r="H89" t="s">
+        <v>29</v>
+      </c>
+      <c r="I89" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>161</v>
+      </c>
+      <c r="B90" t="s">
+        <v>32</v>
+      </c>
+      <c r="C90" t="s">
+        <v>33</v>
+      </c>
+      <c r="D90" t="s">
+        <v>162</v>
+      </c>
+      <c r="E90" t="s">
+        <v>82</v>
+      </c>
+      <c r="F90" t="s">
+        <v>83</v>
+      </c>
+      <c r="G90" t="s">
+        <v>28</v>
+      </c>
+      <c r="H90" t="s">
+        <v>29</v>
+      </c>
+      <c r="I90" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>163</v>
+      </c>
+      <c r="B91" t="s">
+        <v>32</v>
+      </c>
+      <c r="C91" t="s">
+        <v>33</v>
+      </c>
+      <c r="D91" t="s">
+        <v>162</v>
+      </c>
+      <c r="E91" t="s">
+        <v>82</v>
+      </c>
+      <c r="F91" t="s">
+        <v>83</v>
+      </c>
+      <c r="G91" t="s">
+        <v>28</v>
+      </c>
+      <c r="H91" t="s">
+        <v>29</v>
+      </c>
+      <c r="I91" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>164</v>
+      </c>
+      <c r="B92" t="s">
+        <v>25</v>
+      </c>
+      <c r="C92" t="s">
+        <v>26</v>
+      </c>
+      <c r="D92" t="s">
+        <v>165</v>
+      </c>
+      <c r="E92" t="s">
+        <v>84</v>
+      </c>
+      <c r="F92" t="s">
+        <v>85</v>
+      </c>
+      <c r="G92" t="s">
+        <v>28</v>
+      </c>
+      <c r="H92" t="s">
+        <v>29</v>
+      </c>
+      <c r="I92" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>166</v>
+      </c>
+      <c r="B93" t="s">
+        <v>32</v>
+      </c>
+      <c r="C93" t="s">
+        <v>33</v>
+      </c>
+      <c r="D93" t="s">
+        <v>165</v>
+      </c>
+      <c r="E93" t="s">
+        <v>84</v>
+      </c>
+      <c r="F93" t="s">
+        <v>85</v>
+      </c>
+      <c r="G93" t="s">
+        <v>28</v>
+      </c>
+      <c r="H93" t="s">
+        <v>29</v>
+      </c>
+      <c r="I93" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>167</v>
+      </c>
+      <c r="B94" t="s">
+        <v>25</v>
+      </c>
+      <c r="C94" t="s">
+        <v>26</v>
+      </c>
+      <c r="D94" t="s">
+        <v>168</v>
+      </c>
+      <c r="E94" t="s">
+        <v>86</v>
+      </c>
+      <c r="F94" t="s">
+        <v>87</v>
+      </c>
+      <c r="G94" t="s">
+        <v>28</v>
+      </c>
+      <c r="H94" t="s">
+        <v>29</v>
+      </c>
+      <c r="I94" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>169</v>
+      </c>
+      <c r="B95" t="s">
+        <v>35</v>
+      </c>
+      <c r="C95" t="s">
+        <v>38</v>
+      </c>
+      <c r="D95" t="s">
+        <v>168</v>
+      </c>
+      <c r="E95" t="s">
+        <v>86</v>
+      </c>
+      <c r="F95" t="s">
+        <v>87</v>
+      </c>
+      <c r="G95" t="s">
+        <v>28</v>
+      </c>
+      <c r="H95" t="s">
+        <v>29</v>
+      </c>
+      <c r="I95" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>170</v>
+      </c>
+      <c r="B96" t="s">
+        <v>35</v>
+      </c>
+      <c r="C96" t="s">
+        <v>38</v>
+      </c>
+      <c r="D96" t="s">
+        <v>171</v>
+      </c>
+      <c r="E96" t="s">
+        <v>88</v>
+      </c>
+      <c r="F96" t="s">
+        <v>89</v>
+      </c>
+      <c r="G96" t="s">
+        <v>28</v>
+      </c>
+      <c r="H96" t="s">
+        <v>29</v>
+      </c>
+      <c r="I96" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>172</v>
+      </c>
+      <c r="B97" t="s">
+        <v>25</v>
+      </c>
+      <c r="C97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D97" t="s">
+        <v>173</v>
+      </c>
+      <c r="E97" t="s">
+        <v>90</v>
+      </c>
+      <c r="F97" t="s">
+        <v>91</v>
+      </c>
+      <c r="G97" t="s">
+        <v>28</v>
+      </c>
+      <c r="H97" t="s">
+        <v>29</v>
+      </c>
+      <c r="I97" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>174</v>
+      </c>
+      <c r="B98" t="s">
+        <v>32</v>
+      </c>
+      <c r="C98" t="s">
+        <v>33</v>
+      </c>
+      <c r="D98" t="s">
+        <v>173</v>
+      </c>
+      <c r="E98" t="s">
+        <v>90</v>
+      </c>
+      <c r="F98" t="s">
+        <v>91</v>
+      </c>
+      <c r="G98" t="s">
+        <v>28</v>
+      </c>
+      <c r="H98" t="s">
+        <v>29</v>
+      </c>
+      <c r="I98" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>175</v>
+      </c>
+      <c r="B99" t="s">
+        <v>25</v>
+      </c>
+      <c r="C99" t="s">
+        <v>26</v>
+      </c>
+      <c r="D99" t="s">
+        <v>176</v>
+      </c>
+      <c r="E99" t="s">
+        <v>92</v>
+      </c>
+      <c r="F99" t="s">
+        <v>93</v>
+      </c>
+      <c r="G99" t="s">
+        <v>28</v>
+      </c>
+      <c r="H99" t="s">
+        <v>29</v>
+      </c>
+      <c r="I99" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>177</v>
+      </c>
+      <c r="B100" t="s">
+        <v>35</v>
+      </c>
+      <c r="C100" t="s">
+        <v>38</v>
+      </c>
+      <c r="D100" t="s">
+        <v>176</v>
+      </c>
+      <c r="E100" t="s">
+        <v>92</v>
+      </c>
+      <c r="F100" t="s">
+        <v>93</v>
+      </c>
+      <c r="G100" t="s">
+        <v>28</v>
+      </c>
+      <c r="H100" t="s">
+        <v>29</v>
+      </c>
+      <c r="I100" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>178</v>
+      </c>
+      <c r="B101" t="s">
+        <v>25</v>
+      </c>
+      <c r="C101" t="s">
+        <v>26</v>
+      </c>
+      <c r="D101" t="s">
+        <v>179</v>
+      </c>
+      <c r="E101" t="s">
+        <v>94</v>
+      </c>
+      <c r="F101" t="s">
+        <v>95</v>
+      </c>
+      <c r="G101" t="s">
+        <v>28</v>
+      </c>
+      <c r="H101" t="s">
+        <v>29</v>
+      </c>
+      <c r="I101" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>180</v>
+      </c>
+      <c r="B102" t="s">
+        <v>35</v>
+      </c>
+      <c r="C102" t="s">
+        <v>38</v>
+      </c>
+      <c r="D102" t="s">
+        <v>179</v>
+      </c>
+      <c r="E102" t="s">
+        <v>94</v>
+      </c>
+      <c r="F102" t="s">
+        <v>95</v>
+      </c>
+      <c r="G102" t="s">
+        <v>28</v>
+      </c>
+      <c r="H102" t="s">
+        <v>29</v>
+      </c>
+      <c r="I102" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>181</v>
+      </c>
+      <c r="B103" t="s">
+        <v>25</v>
+      </c>
+      <c r="C103" t="s">
+        <v>26</v>
+      </c>
+      <c r="D103" t="s">
+        <v>182</v>
+      </c>
+      <c r="E103" t="s">
+        <v>96</v>
+      </c>
+      <c r="F103" t="s">
+        <v>97</v>
+      </c>
+      <c r="G103" t="s">
+        <v>28</v>
+      </c>
+      <c r="H103" t="s">
+        <v>29</v>
+      </c>
+      <c r="I103" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>183</v>
+      </c>
+      <c r="B104" t="s">
+        <v>35</v>
+      </c>
+      <c r="C104" t="s">
+        <v>38</v>
+      </c>
+      <c r="D104" t="s">
+        <v>182</v>
+      </c>
+      <c r="E104" t="s">
+        <v>96</v>
+      </c>
+      <c r="F104" t="s">
+        <v>97</v>
+      </c>
+      <c r="G104" t="s">
+        <v>28</v>
+      </c>
+      <c r="H104" t="s">
+        <v>29</v>
+      </c>
+      <c r="I104" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>184</v>
+      </c>
+      <c r="B105" t="s">
+        <v>35</v>
+      </c>
+      <c r="C105" t="s">
+        <v>38</v>
+      </c>
+      <c r="D105" t="s">
+        <v>182</v>
+      </c>
+      <c r="E105" t="s">
+        <v>96</v>
+      </c>
+      <c r="F105" t="s">
+        <v>97</v>
+      </c>
+      <c r="G105" t="s">
+        <v>28</v>
+      </c>
+      <c r="H105" t="s">
+        <v>29</v>
+      </c>
+      <c r="I105" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>185</v>
+      </c>
+      <c r="B106" t="s">
+        <v>32</v>
+      </c>
+      <c r="C106" t="s">
+        <v>42</v>
+      </c>
+      <c r="D106" t="s">
+        <v>182</v>
+      </c>
+      <c r="E106" t="s">
+        <v>96</v>
+      </c>
+      <c r="F106" t="s">
+        <v>97</v>
+      </c>
+      <c r="G106" t="s">
+        <v>28</v>
+      </c>
+      <c r="H106" t="s">
+        <v>29</v>
+      </c>
+      <c r="I106" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>186</v>
+      </c>
+      <c r="B107" t="s">
+        <v>25</v>
+      </c>
+      <c r="C107" t="s">
+        <v>44</v>
+      </c>
+      <c r="D107" t="s">
+        <v>182</v>
+      </c>
+      <c r="E107" t="s">
+        <v>96</v>
+      </c>
+      <c r="F107" t="s">
+        <v>97</v>
+      </c>
+      <c r="G107" t="s">
+        <v>28</v>
+      </c>
+      <c r="H107" t="s">
+        <v>29</v>
+      </c>
+      <c r="I107" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>187</v>
+      </c>
+      <c r="B108" t="s">
+        <v>35</v>
+      </c>
+      <c r="C108" t="s">
+        <v>38</v>
+      </c>
+      <c r="D108" t="s">
+        <v>182</v>
+      </c>
+      <c r="E108" t="s">
+        <v>96</v>
+      </c>
+      <c r="F108" t="s">
+        <v>97</v>
+      </c>
+      <c r="G108" t="s">
+        <v>28</v>
+      </c>
+      <c r="H108" t="s">
+        <v>29</v>
+      </c>
+      <c r="I108" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>188</v>
+      </c>
+      <c r="B109" t="s">
+        <v>25</v>
+      </c>
+      <c r="C109" t="s">
+        <v>26</v>
+      </c>
+      <c r="D109" t="s">
+        <v>189</v>
+      </c>
+      <c r="E109" t="s">
+        <v>98</v>
+      </c>
+      <c r="F109" t="s">
+        <v>99</v>
+      </c>
+      <c r="G109" t="s">
+        <v>28</v>
+      </c>
+      <c r="H109" t="s">
+        <v>29</v>
+      </c>
+      <c r="I109" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>190</v>
+      </c>
+      <c r="B110" t="s">
+        <v>32</v>
+      </c>
+      <c r="C110" t="s">
+        <v>33</v>
+      </c>
+      <c r="D110" t="s">
+        <v>189</v>
+      </c>
+      <c r="E110" t="s">
+        <v>98</v>
+      </c>
+      <c r="F110" t="s">
+        <v>99</v>
+      </c>
+      <c r="G110" t="s">
+        <v>28</v>
+      </c>
+      <c r="H110" t="s">
+        <v>29</v>
+      </c>
+      <c r="I110" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>191</v>
+      </c>
+      <c r="B111" t="s">
+        <v>25</v>
+      </c>
+      <c r="C111" t="s">
+        <v>26</v>
+      </c>
+      <c r="D111" t="s">
+        <v>192</v>
+      </c>
+      <c r="E111" t="s">
+        <v>100</v>
+      </c>
+      <c r="F111" t="s">
+        <v>101</v>
+      </c>
+      <c r="G111" t="s">
+        <v>28</v>
+      </c>
+      <c r="H111" t="s">
+        <v>29</v>
+      </c>
+      <c r="I111" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>193</v>
+      </c>
+      <c r="B112" t="s">
+        <v>25</v>
+      </c>
+      <c r="C112" t="s">
+        <v>26</v>
+      </c>
+      <c r="D112" t="s">
+        <v>192</v>
+      </c>
+      <c r="E112" t="s">
+        <v>100</v>
+      </c>
+      <c r="F112" t="s">
+        <v>101</v>
+      </c>
+      <c r="G112" t="s">
+        <v>28</v>
+      </c>
+      <c r="H112" t="s">
+        <v>29</v>
+      </c>
+      <c r="I112" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>194</v>
+      </c>
+      <c r="B113" t="s">
+        <v>25</v>
+      </c>
+      <c r="C113" t="s">
+        <v>26</v>
+      </c>
+      <c r="D113" t="s">
+        <v>192</v>
+      </c>
+      <c r="E113" t="s">
+        <v>100</v>
+      </c>
+      <c r="F113" t="s">
+        <v>101</v>
+      </c>
+      <c r="G113" t="s">
+        <v>28</v>
+      </c>
+      <c r="H113" t="s">
+        <v>29</v>
+      </c>
+      <c r="I113" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>195</v>
+      </c>
+      <c r="B114" t="s">
+        <v>25</v>
+      </c>
+      <c r="C114" t="s">
+        <v>26</v>
+      </c>
+      <c r="D114" t="s">
+        <v>192</v>
+      </c>
+      <c r="E114" t="s">
+        <v>100</v>
+      </c>
+      <c r="F114" t="s">
+        <v>101</v>
+      </c>
+      <c r="G114" t="s">
+        <v>28</v>
+      </c>
+      <c r="H114" t="s">
+        <v>29</v>
+      </c>
+      <c r="I114" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>196</v>
+      </c>
+      <c r="B115" t="s">
+        <v>25</v>
+      </c>
+      <c r="C115" t="s">
+        <v>26</v>
+      </c>
+      <c r="D115" t="s">
+        <v>192</v>
+      </c>
+      <c r="E115" t="s">
+        <v>100</v>
+      </c>
+      <c r="F115" t="s">
+        <v>101</v>
+      </c>
+      <c r="G115" t="s">
+        <v>28</v>
+      </c>
+      <c r="H115" t="s">
+        <v>29</v>
+      </c>
+      <c r="I115" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>197</v>
+      </c>
+      <c r="B116" t="s">
+        <v>25</v>
+      </c>
+      <c r="C116" t="s">
+        <v>26</v>
+      </c>
+      <c r="D116" t="s">
+        <v>192</v>
+      </c>
+      <c r="E116" t="s">
+        <v>100</v>
+      </c>
+      <c r="F116" t="s">
+        <v>101</v>
+      </c>
+      <c r="G116" t="s">
+        <v>28</v>
+      </c>
+      <c r="H116" t="s">
+        <v>29</v>
+      </c>
+      <c r="I116" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>198</v>
+      </c>
+      <c r="B117" t="s">
+        <v>25</v>
+      </c>
+      <c r="C117" t="s">
+        <v>26</v>
+      </c>
+      <c r="D117" t="s">
+        <v>192</v>
+      </c>
+      <c r="E117" t="s">
+        <v>100</v>
+      </c>
+      <c r="F117" t="s">
+        <v>101</v>
+      </c>
+      <c r="G117" t="s">
+        <v>28</v>
+      </c>
+      <c r="H117" t="s">
+        <v>29</v>
+      </c>
+      <c r="I117" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>199</v>
+      </c>
+      <c r="B118" t="s">
+        <v>25</v>
+      </c>
+      <c r="C118" t="s">
+        <v>26</v>
+      </c>
+      <c r="D118" t="s">
+        <v>192</v>
+      </c>
+      <c r="E118" t="s">
+        <v>100</v>
+      </c>
+      <c r="F118" t="s">
+        <v>101</v>
+      </c>
+      <c r="G118" t="s">
+        <v>28</v>
+      </c>
+      <c r="H118" t="s">
+        <v>29</v>
+      </c>
+      <c r="I118" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>200</v>
+      </c>
+      <c r="B119" t="s">
+        <v>25</v>
+      </c>
+      <c r="C119" t="s">
+        <v>26</v>
+      </c>
+      <c r="D119" t="s">
+        <v>192</v>
+      </c>
+      <c r="E119" t="s">
+        <v>100</v>
+      </c>
+      <c r="F119" t="s">
+        <v>101</v>
+      </c>
+      <c r="G119" t="s">
+        <v>28</v>
+      </c>
+      <c r="H119" t="s">
+        <v>29</v>
+      </c>
+      <c r="I119" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>201</v>
+      </c>
+      <c r="B120" t="s">
+        <v>25</v>
+      </c>
+      <c r="C120" t="s">
+        <v>26</v>
+      </c>
+      <c r="D120" t="s">
+        <v>192</v>
+      </c>
+      <c r="E120" t="s">
+        <v>100</v>
+      </c>
+      <c r="F120" t="s">
+        <v>101</v>
+      </c>
+      <c r="G120" t="s">
+        <v>28</v>
+      </c>
+      <c r="H120" t="s">
+        <v>29</v>
+      </c>
+      <c r="I120" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>202</v>
+      </c>
+      <c r="B121" t="s">
+        <v>25</v>
+      </c>
+      <c r="C121" t="s">
+        <v>26</v>
+      </c>
+      <c r="D121" t="s">
+        <v>192</v>
+      </c>
+      <c r="E121" t="s">
+        <v>100</v>
+      </c>
+      <c r="F121" t="s">
+        <v>101</v>
+      </c>
+      <c r="G121" t="s">
+        <v>28</v>
+      </c>
+      <c r="H121" t="s">
+        <v>29</v>
+      </c>
+      <c r="I121" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>203</v>
+      </c>
+      <c r="B122" t="s">
+        <v>32</v>
+      </c>
+      <c r="C122" t="s">
+        <v>33</v>
+      </c>
+      <c r="D122" t="s">
+        <v>192</v>
+      </c>
+      <c r="E122" t="s">
+        <v>100</v>
+      </c>
+      <c r="F122" t="s">
+        <v>101</v>
+      </c>
+      <c r="G122" t="s">
+        <v>28</v>
+      </c>
+      <c r="H122" t="s">
+        <v>29</v>
+      </c>
+      <c r="I122" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>204</v>
+      </c>
+      <c r="B123" t="s">
+        <v>25</v>
+      </c>
+      <c r="C123" t="s">
+        <v>26</v>
+      </c>
+      <c r="D123" t="s">
+        <v>205</v>
+      </c>
+      <c r="E123" t="s">
+        <v>102</v>
+      </c>
+      <c r="F123" t="s">
+        <v>103</v>
+      </c>
+      <c r="G123" t="s">
+        <v>28</v>
+      </c>
+      <c r="H123" t="s">
+        <v>29</v>
+      </c>
+      <c r="I123" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>206</v>
+      </c>
+      <c r="B124" t="s">
+        <v>32</v>
+      </c>
+      <c r="C124" t="s">
+        <v>33</v>
+      </c>
+      <c r="D124" t="s">
+        <v>205</v>
+      </c>
+      <c r="E124" t="s">
+        <v>102</v>
+      </c>
+      <c r="F124" t="s">
+        <v>103</v>
+      </c>
+      <c r="G124" t="s">
+        <v>28</v>
+      </c>
+      <c r="H124" t="s">
+        <v>29</v>
+      </c>
+      <c r="I124" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>207</v>
+      </c>
+      <c r="B125" t="s">
+        <v>25</v>
+      </c>
+      <c r="C125" t="s">
+        <v>26</v>
+      </c>
+      <c r="D125" t="s">
+        <v>208</v>
+      </c>
+      <c r="E125" t="s">
+        <v>104</v>
+      </c>
+      <c r="F125" t="s">
+        <v>105</v>
+      </c>
+      <c r="G125" t="s">
+        <v>28</v>
+      </c>
+      <c r="H125" t="s">
+        <v>29</v>
+      </c>
+      <c r="I125" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>209</v>
+      </c>
+      <c r="B126" t="s">
+        <v>35</v>
+      </c>
+      <c r="C126" t="s">
+        <v>38</v>
+      </c>
+      <c r="D126" t="s">
+        <v>208</v>
+      </c>
+      <c r="E126" t="s">
+        <v>104</v>
+      </c>
+      <c r="F126" t="s">
+        <v>105</v>
+      </c>
+      <c r="G126" t="s">
+        <v>28</v>
+      </c>
+      <c r="H126" t="s">
+        <v>29</v>
+      </c>
+      <c r="I126" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>210</v>
+      </c>
+      <c r="B127" t="s">
+        <v>25</v>
+      </c>
+      <c r="C127" t="s">
+        <v>26</v>
+      </c>
+      <c r="D127" t="s">
+        <v>211</v>
+      </c>
+      <c r="E127" t="s">
+        <v>106</v>
+      </c>
+      <c r="F127" t="s">
+        <v>107</v>
+      </c>
+      <c r="G127" t="s">
+        <v>28</v>
+      </c>
+      <c r="H127" t="s">
+        <v>29</v>
+      </c>
+      <c r="I127" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>212</v>
+      </c>
+      <c r="B128" t="s">
+        <v>32</v>
+      </c>
+      <c r="C128" t="s">
+        <v>33</v>
+      </c>
+      <c r="D128" t="s">
+        <v>211</v>
+      </c>
+      <c r="E128" t="s">
+        <v>106</v>
+      </c>
+      <c r="F128" t="s">
+        <v>107</v>
+      </c>
+      <c r="G128" t="s">
+        <v>28</v>
+      </c>
+      <c r="H128" t="s">
+        <v>29</v>
+      </c>
+      <c r="I128" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>213</v>
+      </c>
+      <c r="B129" t="s">
+        <v>32</v>
+      </c>
+      <c r="C129" t="s">
+        <v>42</v>
+      </c>
+      <c r="D129" t="s">
+        <v>211</v>
+      </c>
+      <c r="E129" t="s">
+        <v>106</v>
+      </c>
+      <c r="F129" t="s">
+        <v>107</v>
+      </c>
+      <c r="G129" t="s">
+        <v>28</v>
+      </c>
+      <c r="H129" t="s">
+        <v>29</v>
+      </c>
+      <c r="I129" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>214</v>
+      </c>
+      <c r="B130" t="s">
+        <v>25</v>
+      </c>
+      <c r="C130" t="s">
+        <v>44</v>
+      </c>
+      <c r="D130" t="s">
+        <v>211</v>
+      </c>
+      <c r="E130" t="s">
+        <v>106</v>
+      </c>
+      <c r="F130" t="s">
+        <v>107</v>
+      </c>
+      <c r="G130" t="s">
+        <v>28</v>
+      </c>
+      <c r="H130" t="s">
+        <v>29</v>
+      </c>
+      <c r="I130" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>215</v>
+      </c>
+      <c r="B131" t="s">
+        <v>25</v>
+      </c>
+      <c r="C131" t="s">
+        <v>26</v>
+      </c>
+      <c r="D131" t="s">
+        <v>211</v>
+      </c>
+      <c r="E131" t="s">
+        <v>106</v>
+      </c>
+      <c r="F131" t="s">
+        <v>107</v>
+      </c>
+      <c r="G131" t="s">
+        <v>28</v>
+      </c>
+      <c r="H131" t="s">
+        <v>29</v>
+      </c>
+      <c r="I131" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>216</v>
+      </c>
+      <c r="B132" t="s">
+        <v>32</v>
+      </c>
+      <c r="C132" t="s">
+        <v>33</v>
+      </c>
+      <c r="D132" t="s">
+        <v>211</v>
+      </c>
+      <c r="E132" t="s">
+        <v>106</v>
+      </c>
+      <c r="F132" t="s">
+        <v>107</v>
+      </c>
+      <c r="G132" t="s">
+        <v>28</v>
+      </c>
+      <c r="H132" t="s">
+        <v>29</v>
+      </c>
+      <c r="I132" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>217</v>
+      </c>
+      <c r="B133" t="s">
+        <v>25</v>
+      </c>
+      <c r="C133" t="s">
+        <v>26</v>
+      </c>
+      <c r="D133" t="s">
+        <v>218</v>
+      </c>
+      <c r="E133" t="s">
+        <v>108</v>
+      </c>
+      <c r="F133" t="s">
         <v>109</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G133" t="s">
+        <v>28</v>
+      </c>
+      <c r="H133" t="s">
+        <v>29</v>
+      </c>
+      <c r="I133" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>219</v>
+      </c>
+      <c r="B134" t="s">
+        <v>32</v>
+      </c>
+      <c r="C134" t="s">
+        <v>33</v>
+      </c>
+      <c r="D134" t="s">
+        <v>218</v>
+      </c>
+      <c r="E134" t="s">
+        <v>108</v>
+      </c>
+      <c r="F134" t="s">
+        <v>109</v>
+      </c>
+      <c r="G134" t="s">
+        <v>28</v>
+      </c>
+      <c r="H134" t="s">
+        <v>29</v>
+      </c>
+      <c r="I134" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>220</v>
+      </c>
+      <c r="B135" t="s">
+        <v>25</v>
+      </c>
+      <c r="C135" t="s">
+        <v>44</v>
+      </c>
+      <c r="D135" t="s">
+        <v>218</v>
+      </c>
+      <c r="E135" t="s">
+        <v>108</v>
+      </c>
+      <c r="F135" t="s">
+        <v>109</v>
+      </c>
+      <c r="G135" t="s">
+        <v>28</v>
+      </c>
+      <c r="H135" t="s">
+        <v>29</v>
+      </c>
+      <c r="I135" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>221</v>
+      </c>
+      <c r="B136" t="s">
+        <v>35</v>
+      </c>
+      <c r="C136" t="s">
+        <v>38</v>
+      </c>
+      <c r="D136" t="s">
+        <v>222</v>
+      </c>
+      <c r="E136" t="s">
         <v>110</v>
       </c>
-      <c r="G54" t="s">
-        <v>59</v>
-      </c>
-      <c r="H54" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="E55" t="s">
+      <c r="F136" t="s">
         <v>111</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G136" t="s">
+        <v>28</v>
+      </c>
+      <c r="H136" t="s">
+        <v>29</v>
+      </c>
+      <c r="I136" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>223</v>
+      </c>
+      <c r="B137" t="s">
+        <v>25</v>
+      </c>
+      <c r="C137" t="s">
+        <v>26</v>
+      </c>
+      <c r="D137" t="s">
+        <v>224</v>
+      </c>
+      <c r="E137" t="s">
         <v>112</v>
       </c>
-      <c r="G55" t="s">
-        <v>59</v>
-      </c>
-      <c r="H55" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="E56" t="s">
+      <c r="F137" t="s">
         <v>113</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G137" t="s">
+        <v>28</v>
+      </c>
+      <c r="H137" t="s">
+        <v>29</v>
+      </c>
+      <c r="I137" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>225</v>
+      </c>
+      <c r="B138" t="s">
+        <v>32</v>
+      </c>
+      <c r="C138" t="s">
+        <v>33</v>
+      </c>
+      <c r="D138" t="s">
+        <v>224</v>
+      </c>
+      <c r="E138" t="s">
+        <v>112</v>
+      </c>
+      <c r="F138" t="s">
+        <v>113</v>
+      </c>
+      <c r="G138" t="s">
+        <v>28</v>
+      </c>
+      <c r="H138" t="s">
+        <v>29</v>
+      </c>
+      <c r="I138" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>190</v>
+      </c>
+      <c r="B139" t="s">
+        <v>35</v>
+      </c>
+      <c r="C139" t="s">
+        <v>38</v>
+      </c>
+      <c r="D139" t="s">
+        <v>226</v>
+      </c>
+      <c r="E139" t="s">
         <v>114</v>
       </c>
-      <c r="G56" t="s">
-        <v>59</v>
-      </c>
-      <c r="H56" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="E57" t="s">
+      <c r="F139" t="s">
         <v>115</v>
       </c>
-      <c r="F57" t="s">
-        <v>116</v>
-      </c>
-      <c r="G57" t="s">
-        <v>59</v>
-      </c>
-      <c r="H57" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="E58" t="s">
-        <v>117</v>
-      </c>
-      <c r="F58" t="s">
-        <v>118</v>
-      </c>
-      <c r="G58" t="s">
-        <v>59</v>
-      </c>
-      <c r="H58" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="E59" t="s">
-        <v>119</v>
-      </c>
-      <c r="F59" t="s">
-        <v>120</v>
-      </c>
-      <c r="G59" t="s">
-        <v>59</v>
-      </c>
-      <c r="H59" t="s">
-        <v>60</v>
+      <c r="G139" t="s">
+        <v>28</v>
+      </c>
+      <c r="H139" t="s">
+        <v>29</v>
+      </c>
+      <c r="I139" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
